--- a/T2/datasets/IO/CCNE.xlsx
+++ b/T2/datasets/IO/CCNE.xlsx
@@ -478,12 +478,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Bacharelado</t>
+          <t>Ciencias Biologicas - Bacharelado</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -511,12 +511,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Bacharelado</t>
+          <t>Ciencias Biologicas - Bacharelado</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -544,12 +544,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Bacharelado</t>
+          <t>Ciencias Biologicas - Bacharelado</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -577,12 +577,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Bacharelado</t>
+          <t>Ciencias Biologicas - Bacharelado</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -610,12 +610,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Bacharelado</t>
+          <t>Ciencias Biologicas - Bacharelado</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -643,12 +643,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Bacharelado</t>
+          <t>Ciencias Biologicas - Bacharelado</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -676,12 +676,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Bacharelado</t>
+          <t>Ciencias Biologicas - Bacharelado</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -709,12 +709,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Bacharelado</t>
+          <t>Ciencias Biologicas - Bacharelado</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -742,12 +742,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Bacharelado</t>
+          <t>Ciencias Biologicas - Bacharelado</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -775,12 +775,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Bacharelado</t>
+          <t>Ciencias Biologicas - Bacharelado</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Bacharelado</t>
+          <t>Ciencias Biologicas - Bacharelado</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Bacharelado</t>
+          <t>Ciencias Biologicas - Bacharelado</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -874,12 +874,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Bacharelado</t>
+          <t>Ciencias Biologicas - Bacharelado</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -907,12 +907,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Bacharelado</t>
+          <t>Ciencias Biologicas - Bacharelado</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -940,12 +940,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Bacharelado</t>
+          <t>Ciencias Biologicas - Bacharelado</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -973,12 +973,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Bacharelado</t>
+          <t>Ciencias Biologicas - Bacharelado</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1006,12 +1006,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Bacharelado</t>
+          <t>Ciencias Biologicas - Bacharelado</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Bacharelado</t>
+          <t>Ciencias Biologicas - Bacharelado</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1072,12 +1072,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Bacharelado</t>
+          <t>Ciencias Biologicas - Bacharelado</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1105,12 +1105,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Bacharelado</t>
+          <t>Ciencias Biologicas - Bacharelado</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Bacharelado</t>
+          <t>Ciencias Biologicas - Bacharelado</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1171,12 +1171,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Bacharelado</t>
+          <t>Ciencias Biologicas - Bacharelado</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1204,12 +1204,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Licenciatura Plena</t>
+          <t>Ciencias Biologicas - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Licenciatura Plena</t>
+          <t>Ciencias Biologicas - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1270,12 +1270,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Licenciatura Plena</t>
+          <t>Ciencias Biologicas - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Licenciatura Plena</t>
+          <t>Ciencias Biologicas - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1336,12 +1336,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Licenciatura Plena</t>
+          <t>Ciencias Biologicas - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1369,12 +1369,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Licenciatura Plena</t>
+          <t>Ciencias Biologicas - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1402,12 +1402,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Licenciatura Plena</t>
+          <t>Ciencias Biologicas - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1435,12 +1435,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Licenciatura Plena</t>
+          <t>Ciencias Biologicas - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1468,12 +1468,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Licenciatura Plena</t>
+          <t>Ciencias Biologicas - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Licenciatura Plena</t>
+          <t>Ciencias Biologicas - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1534,12 +1534,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Licenciatura Plena</t>
+          <t>Ciencias Biologicas - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1567,12 +1567,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Licenciatura Plena</t>
+          <t>Ciencias Biologicas - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1600,12 +1600,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Licenciatura Plena</t>
+          <t>Ciencias Biologicas - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1633,12 +1633,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Licenciatura Plena</t>
+          <t>Ciencias Biologicas - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1666,12 +1666,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Licenciatura Plena</t>
+          <t>Ciencias Biologicas - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Licenciatura Plena</t>
+          <t>Ciencias Biologicas - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1732,12 +1732,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Licenciatura Plena</t>
+          <t>Ciencias Biologicas - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Licenciatura Plena</t>
+          <t>Ciencias Biologicas - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1798,12 +1798,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Licenciatura Plena</t>
+          <t>Ciencias Biologicas - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1831,12 +1831,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Licenciatura Plena</t>
+          <t>Ciencias Biologicas - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1864,12 +1864,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Licenciatura Plena</t>
+          <t>Ciencias Biologicas - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1897,12 +1897,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Licenciatura Plena</t>
+          <t>Ciencias Biologicas - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1930,12 +1930,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Núcleo Comum</t>
+          <t>Ciencias Biologicas - Nucleo Comum</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Núcleo Comum</t>
+          <t>Ciencias Biologicas - Nucleo Comum</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Núcleo Comum</t>
+          <t>Ciencias Biologicas - Nucleo Comum</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2029,12 +2029,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Núcleo Comum</t>
+          <t>Ciencias Biologicas - Nucleo Comum</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2062,12 +2062,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Núcleo Comum</t>
+          <t>Ciencias Biologicas - Nucleo Comum</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2095,12 +2095,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Núcleo Comum</t>
+          <t>Ciencias Biologicas - Nucleo Comum</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2128,12 +2128,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Núcleo Comum</t>
+          <t>Ciencias Biologicas - Nucleo Comum</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2161,12 +2161,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Núcleo Comum</t>
+          <t>Ciencias Biologicas - Nucleo Comum</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2194,12 +2194,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Núcleo Comum</t>
+          <t>Ciencias Biologicas - Nucleo Comum</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Núcleo Comum</t>
+          <t>Ciencias Biologicas - Nucleo Comum</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2260,12 +2260,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Núcleo Comum</t>
+          <t>Ciencias Biologicas - Nucleo Comum</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2293,12 +2293,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Núcleo Comum</t>
+          <t>Ciencias Biologicas - Nucleo Comum</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2326,12 +2326,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Núcleo Comum</t>
+          <t>Ciencias Biologicas - Nucleo Comum</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2359,12 +2359,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Núcleo Comum</t>
+          <t>Ciencias Biologicas - Nucleo Comum</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Núcleo Comum</t>
+          <t>Ciencias Biologicas - Nucleo Comum</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2425,12 +2425,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Núcleo Comum</t>
+          <t>Ciencias Biologicas - Nucleo Comum</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2458,12 +2458,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Núcleo Comum</t>
+          <t>Ciencias Biologicas - Nucleo Comum</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2491,12 +2491,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Núcleo Comum</t>
+          <t>Ciencias Biologicas - Nucleo Comum</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2524,12 +2524,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Núcleo Comum</t>
+          <t>Ciencias Biologicas - Nucleo Comum</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2557,12 +2557,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Núcleo Comum</t>
+          <t>Ciencias Biologicas - Nucleo Comum</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2590,12 +2590,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Núcleo Comum</t>
+          <t>Ciencias Biologicas - Nucleo Comum</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2623,12 +2623,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ciências Biológicas - Núcleo Comum</t>
+          <t>Ciencias Biologicas - Nucleo Comum</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2656,12 +2656,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Curso de Bacharelado em Estatística - Noturno</t>
+          <t>Curso de Bacharelado em Estatistica - Noturno</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Curso de Bacharelado em Estatística - Noturno</t>
+          <t>Curso de Bacharelado em Estatistica - Noturno</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2722,12 +2722,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Curso de Bacharelado em Estatística - Noturno</t>
+          <t>Curso de Bacharelado em Estatistica - Noturno</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2755,12 +2755,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Curso de Bacharelado em Estatística - Noturno</t>
+          <t>Curso de Bacharelado em Estatistica - Noturno</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2788,12 +2788,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Curso de Bacharelado em Estatística - Noturno</t>
+          <t>Curso de Bacharelado em Estatistica - Noturno</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Curso de Bacharelado em Estatística - Noturno</t>
+          <t>Curso de Bacharelado em Estatistica - Noturno</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2854,12 +2854,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Curso de Bacharelado em Estatística - Noturno</t>
+          <t>Curso de Bacharelado em Estatistica - Noturno</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2887,12 +2887,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Curso de Bacharelado em Estatística - Noturno</t>
+          <t>Curso de Bacharelado em Estatistica - Noturno</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2920,12 +2920,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Curso de Bacharelado em Estatística - Noturno</t>
+          <t>Curso de Bacharelado em Estatistica - Noturno</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2953,12 +2953,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Curso de Bacharelado em Estatística - Noturno</t>
+          <t>Curso de Bacharelado em Estatistica - Noturno</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2986,12 +2986,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Curso de Bacharelado em Estatística - Noturno</t>
+          <t>Curso de Bacharelado em Estatistica - Noturno</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3019,12 +3019,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Curso de Bacharelado em Estatística - Noturno</t>
+          <t>Curso de Bacharelado em Estatistica - Noturno</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3052,12 +3052,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Curso de Bacharelado em Estatística - Noturno</t>
+          <t>Curso de Bacharelado em Estatistica - Noturno</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3085,12 +3085,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Curso de Bacharelado em Estatística - Noturno</t>
+          <t>Curso de Bacharelado em Estatistica - Noturno</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3118,12 +3118,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Curso de Bacharelado em Estatística - Noturno</t>
+          <t>Curso de Bacharelado em Estatistica - Noturno</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3151,12 +3151,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Curso de Bacharelado em Estatística - Noturno</t>
+          <t>Curso de Bacharelado em Estatistica - Noturno</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3184,12 +3184,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Curso de Bacharelado em Estatística - Noturno</t>
+          <t>Curso de Bacharelado em Estatistica - Noturno</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3217,12 +3217,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Curso de Bacharelado em Estatística - Noturno</t>
+          <t>Curso de Bacharelado em Estatistica - Noturno</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3250,12 +3250,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Curso de Bacharelado em Estatística - Noturno</t>
+          <t>Curso de Bacharelado em Estatistica - Noturno</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3283,12 +3283,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Curso de Bacharelado em Estatística - Noturno</t>
+          <t>Curso de Bacharelado em Estatistica - Noturno</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3316,12 +3316,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Curso de Bacharelado em Estatística - Noturno</t>
+          <t>Curso de Bacharelado em Estatistica - Noturno</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3349,12 +3349,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Curso de Bacharelado em Estatística - Noturno</t>
+          <t>Curso de Bacharelado em Estatistica - Noturno</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3382,12 +3382,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Curso de Estatística</t>
+          <t>Curso de Estatistica</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Curso de Estatística</t>
+          <t>Curso de Estatistica</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3448,12 +3448,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Curso de Estatística</t>
+          <t>Curso de Estatistica</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3481,12 +3481,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Curso de Estatística</t>
+          <t>Curso de Estatistica</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3514,12 +3514,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Curso de Estatística</t>
+          <t>Curso de Estatistica</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3547,12 +3547,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Curso de Estatística</t>
+          <t>Curso de Estatistica</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3580,12 +3580,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Curso Superior de Tecnologia em Processos Químicos</t>
+          <t>Curso Superior de Tecnologia em Processos Quimicos</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Curso Superior de Tecnologia em Processos Químicos</t>
+          <t>Curso Superior de Tecnologia em Processos Quimicos</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3646,12 +3646,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Curso Superior de Tecnologia em Processos Químicos</t>
+          <t>Curso Superior de Tecnologia em Processos Quimicos</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3679,12 +3679,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Curso Superior de Tecnologia em Processos Químicos</t>
+          <t>Curso Superior de Tecnologia em Processos Quimicos</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3712,12 +3712,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Curso Superior de Tecnologia em Processos Químicos</t>
+          <t>Curso Superior de Tecnologia em Processos Quimicos</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3745,12 +3745,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Curso Superior de Tecnologia em Processos Químicos</t>
+          <t>Curso Superior de Tecnologia em Processos Quimicos</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3778,12 +3778,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Curso Superior de Tecnologia em Processos Químicos</t>
+          <t>Curso Superior de Tecnologia em Processos Quimicos</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3811,12 +3811,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Curso Superior de Tecnologia em Processos Químicos</t>
+          <t>Curso Superior de Tecnologia em Processos Quimicos</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3844,12 +3844,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Curso Superior de Tecnologia em Processos Químicos</t>
+          <t>Curso Superior de Tecnologia em Processos Quimicos</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3877,12 +3877,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Curso Superior de Tecnologia em Processos Químicos</t>
+          <t>Curso Superior de Tecnologia em Processos Quimicos</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3910,12 +3910,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Curso Superior de Tecnologia em Processos Químicos</t>
+          <t>Curso Superior de Tecnologia em Processos Quimicos</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3943,12 +3943,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Curso Superior de Tecnologia em Processos Químicos</t>
+          <t>Curso Superior de Tecnologia em Processos Quimicos</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3976,12 +3976,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Curso Superior de Tecnologia em Processos Químicos</t>
+          <t>Curso Superior de Tecnologia em Processos Quimicos</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4009,12 +4009,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Curso Superior de Tecnologia em Processos Químicos</t>
+          <t>Curso Superior de Tecnologia em Processos Quimicos</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4042,12 +4042,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Curso Superior de Tecnologia em Processos Químicos</t>
+          <t>Curso Superior de Tecnologia em Processos Quimicos</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4075,12 +4075,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Curso Superior de Tecnologia em Processos Químicos</t>
+          <t>Curso Superior de Tecnologia em Processos Quimicos</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4108,12 +4108,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Curso Superior de Tecnologia em Processos Químicos</t>
+          <t>Curso Superior de Tecnologia em Processos Quimicos</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4141,12 +4141,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Curso Superior de Tecnologia em Processos Químicos</t>
+          <t>Curso Superior de Tecnologia em Processos Quimicos</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4174,12 +4174,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Curso Superior de Tecnologia em Processos Químicos</t>
+          <t>Curso Superior de Tecnologia em Processos Quimicos</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4207,12 +4207,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Curso Superior de Tecnologia em Processos Químicos</t>
+          <t>Curso Superior de Tecnologia em Processos Quimicos</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4240,12 +4240,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Curso Superior de Tecnologia em Processos Químicos</t>
+          <t>Curso Superior de Tecnologia em Processos Quimicos</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4273,12 +4273,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Curso Superior de Tecnologia em Processos Químicos</t>
+          <t>Curso Superior de Tecnologia em Processos Quimicos</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4306,12 +4306,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Física - Bacharelado</t>
+          <t>Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4339,12 +4339,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Física - Bacharelado</t>
+          <t>Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4372,12 +4372,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Física - Bacharelado</t>
+          <t>Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4405,12 +4405,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Física - Bacharelado</t>
+          <t>Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4438,12 +4438,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Física - Bacharelado</t>
+          <t>Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4471,12 +4471,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Física - Bacharelado</t>
+          <t>Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4504,12 +4504,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Física - Bacharelado</t>
+          <t>Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Física - Bacharelado</t>
+          <t>Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4570,12 +4570,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Física - Bacharelado</t>
+          <t>Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4603,12 +4603,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Física - Bacharelado</t>
+          <t>Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4636,12 +4636,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Física - Bacharelado</t>
+          <t>Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4669,12 +4669,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Física - Bacharelado</t>
+          <t>Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4702,12 +4702,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Física - Bacharelado</t>
+          <t>Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4735,12 +4735,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Física - Bacharelado</t>
+          <t>Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4768,12 +4768,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Física - Bacharelado</t>
+          <t>Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4801,12 +4801,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Física - Bacharelado</t>
+          <t>Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4834,12 +4834,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Física - Bacharelado</t>
+          <t>Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4867,12 +4867,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Física - Bacharelado</t>
+          <t>Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4900,12 +4900,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Física - Bacharelado</t>
+          <t>Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4933,12 +4933,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Física - Bacharelado</t>
+          <t>Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4966,12 +4966,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Física - Bacharelado</t>
+          <t>Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4999,12 +4999,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Física - Bacharelado</t>
+          <t>Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5032,12 +5032,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena</t>
+          <t>Fisica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5065,12 +5065,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena</t>
+          <t>Fisica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5098,12 +5098,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena</t>
+          <t>Fisica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5131,12 +5131,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena</t>
+          <t>Fisica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -5164,12 +5164,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena</t>
+          <t>Fisica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -5197,12 +5197,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena</t>
+          <t>Fisica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -5230,12 +5230,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena</t>
+          <t>Fisica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -5263,12 +5263,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena</t>
+          <t>Fisica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -5296,12 +5296,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena</t>
+          <t>Fisica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -5329,12 +5329,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena</t>
+          <t>Fisica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -5362,12 +5362,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena</t>
+          <t>Fisica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -5395,12 +5395,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena</t>
+          <t>Fisica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -5428,12 +5428,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena</t>
+          <t>Fisica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena</t>
+          <t>Fisica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -5494,12 +5494,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena</t>
+          <t>Fisica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena</t>
+          <t>Fisica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -5560,12 +5560,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena</t>
+          <t>Fisica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5593,12 +5593,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena</t>
+          <t>Fisica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -5626,12 +5626,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena</t>
+          <t>Fisica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5659,12 +5659,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena</t>
+          <t>Fisica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -5692,12 +5692,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena</t>
+          <t>Fisica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5725,12 +5725,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena</t>
+          <t>Fisica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5758,12 +5758,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena Noturno</t>
+          <t>Fisica - Licenciatura Plena Noturno</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5791,12 +5791,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena Noturno</t>
+          <t>Fisica - Licenciatura Plena Noturno</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5824,12 +5824,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena Noturno</t>
+          <t>Fisica - Licenciatura Plena Noturno</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5857,12 +5857,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena Noturno</t>
+          <t>Fisica - Licenciatura Plena Noturno</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5890,12 +5890,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena Noturno</t>
+          <t>Fisica - Licenciatura Plena Noturno</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5923,12 +5923,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena Noturno</t>
+          <t>Fisica - Licenciatura Plena Noturno</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5956,12 +5956,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena Noturno</t>
+          <t>Fisica - Licenciatura Plena Noturno</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5989,12 +5989,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena Noturno</t>
+          <t>Fisica - Licenciatura Plena Noturno</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -6022,12 +6022,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena Noturno</t>
+          <t>Fisica - Licenciatura Plena Noturno</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -6055,12 +6055,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena Noturno</t>
+          <t>Fisica - Licenciatura Plena Noturno</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -6088,12 +6088,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena Noturno</t>
+          <t>Fisica - Licenciatura Plena Noturno</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -6121,12 +6121,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena Noturno</t>
+          <t>Fisica - Licenciatura Plena Noturno</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -6154,12 +6154,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena Noturno</t>
+          <t>Fisica - Licenciatura Plena Noturno</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -6187,12 +6187,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena Noturno</t>
+          <t>Fisica - Licenciatura Plena Noturno</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -6220,12 +6220,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena Noturno</t>
+          <t>Fisica - Licenciatura Plena Noturno</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -6253,12 +6253,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena Noturno</t>
+          <t>Fisica - Licenciatura Plena Noturno</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -6286,12 +6286,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena Noturno</t>
+          <t>Fisica - Licenciatura Plena Noturno</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -6319,12 +6319,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena Noturno</t>
+          <t>Fisica - Licenciatura Plena Noturno</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -6352,12 +6352,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena Noturno</t>
+          <t>Fisica - Licenciatura Plena Noturno</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -6385,12 +6385,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena Noturno</t>
+          <t>Fisica - Licenciatura Plena Noturno</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -6418,12 +6418,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena Noturno</t>
+          <t>Fisica - Licenciatura Plena Noturno</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -6451,12 +6451,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Física - Licenciatura Plena Noturno</t>
+          <t>Fisica - Licenciatura Plena Noturno</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -6484,12 +6484,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Cacequi/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Cacequi/RS</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -6517,12 +6517,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Cacequi/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Cacequi/RS</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -6550,12 +6550,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Cacequi/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Cacequi/RS</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -6583,12 +6583,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Cacequi/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Cacequi/RS</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -6616,12 +6616,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Cachoeira do Sul/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Cachoeira do Sul/RS</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -6649,12 +6649,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Cachoeira do Sul/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Cachoeira do Sul/RS</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -6682,12 +6682,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Cachoeira do Sul/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Cachoeira do Sul/RS</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -6715,12 +6715,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Cachoeira do Sul/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Cachoeira do Sul/RS</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -6748,12 +6748,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Cachoeira do Sul/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Cachoeira do Sul/RS</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -6781,12 +6781,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Cruz Alta/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Cruz Alta/RS</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -6814,12 +6814,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Cruz Alta/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Cruz Alta/RS</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -6847,12 +6847,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Cruz Alta/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Cruz Alta/RS</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -6880,12 +6880,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Cruz Alta/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Cruz Alta/RS</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -6913,12 +6913,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Cruz Alta/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Cruz Alta/RS</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -6946,12 +6946,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Cruz Alta/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Cruz Alta/RS</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -6979,12 +6979,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Faxinal do Soturno/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Faxinal do Soturno/RS</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -7012,12 +7012,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Faxinal do Soturno/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Faxinal do Soturno/RS</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -7045,12 +7045,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Faxinal do Soturno/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Faxinal do Soturno/RS</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -7078,12 +7078,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Faxinal do Soturno/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Faxinal do Soturno/RS</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -7111,12 +7111,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Faxinal do Soturno/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Faxinal do Soturno/RS</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -7144,12 +7144,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Faxinal do Soturno/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Faxinal do Soturno/RS</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -7177,12 +7177,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Gramado/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Gramado/RS</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -7210,12 +7210,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Gramado/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Gramado/RS</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -7243,12 +7243,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Gramado/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Gramado/RS</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -7276,12 +7276,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Gramado/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Gramado/RS</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -7309,12 +7309,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Gramado/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Gramado/RS</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -7342,12 +7342,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Itaqui/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Itaqui/RS</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -7375,12 +7375,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Itaqui/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Itaqui/RS</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -7408,12 +7408,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Pinto Bandeira/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Pinto Bandeira/RS</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -7441,12 +7441,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Pinto Bandeira/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Pinto Bandeira/RS</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -7474,12 +7474,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Pinto Bandeira/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Pinto Bandeira/RS</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -7507,12 +7507,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Pinto Bandeira/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Pinto Bandeira/RS</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -7540,12 +7540,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Quaraí/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Quarai/RS</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -7573,12 +7573,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Quaraí/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Quarai/RS</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -7606,12 +7606,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Quaraí/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Quarai/RS</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -7639,12 +7639,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Quaraí/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Quarai/RS</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -7672,12 +7672,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Quaraí/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Quarai/RS</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -7705,12 +7705,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Quaraí/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Quarai/RS</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -7738,12 +7738,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santa Maria/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santa Maria/RS</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -7771,12 +7771,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santa Maria/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santa Maria/RS</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -7804,12 +7804,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santa Maria/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santa Maria/RS</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -7837,12 +7837,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santa Maria/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santa Maria/RS</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -7870,12 +7870,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santa Maria/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santa Maria/RS</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -7903,12 +7903,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santa Maria/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santa Maria/RS</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -7936,12 +7936,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santa Maria/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santa Maria/RS</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -7969,12 +7969,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santa Maria/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santa Maria/RS</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -8002,12 +8002,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santa Maria/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santa Maria/RS</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -8035,12 +8035,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santa Maria/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santa Maria/RS</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -8068,12 +8068,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santa Maria/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santa Maria/RS</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -8101,12 +8101,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santa Maria/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santa Maria/RS</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -8134,12 +8134,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santa Maria/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santa Maria/RS</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -8167,12 +8167,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santa Maria/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santa Maria/RS</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -8200,12 +8200,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santa Maria/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santa Maria/RS</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -8233,12 +8233,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santa Maria/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santa Maria/RS</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -8266,12 +8266,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santa Maria/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santa Maria/RS</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -8299,12 +8299,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santa Maria/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santa Maria/RS</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -8332,12 +8332,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santo Antônio da Patrulha/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santo Antonio da Patrulha/RS</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -8365,12 +8365,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santo Antônio da Patrulha/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santo Antonio da Patrulha/RS</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -8398,12 +8398,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santo Antônio da Patrulha/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santo Antonio da Patrulha/RS</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -8431,12 +8431,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santo Antônio da Patrulha/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santo Antonio da Patrulha/RS</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -8464,12 +8464,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santo Antônio da Patrulha/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santo Antonio da Patrulha/RS</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -8497,12 +8497,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santo Antônio da Patrulha/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santo Antonio da Patrulha/RS</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -8530,12 +8530,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santo Antônio da Patrulha/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santo Antonio da Patrulha/RS</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -8563,12 +8563,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santo Antônio da Patrulha/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santo Antonio da Patrulha/RS</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -8596,12 +8596,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santo Antônio da Patrulha/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santo Antonio da Patrulha/RS</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -8629,12 +8629,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santo Antônio da Patrulha/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santo Antonio da Patrulha/RS</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -8662,12 +8662,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santo Antônio da Patrulha/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santo Antonio da Patrulha/RS</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -8695,12 +8695,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santo Antônio da Patrulha/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santo Antonio da Patrulha/RS</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -8728,12 +8728,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santo Antônio da Patrulha/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santo Antonio da Patrulha/RS</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -8761,12 +8761,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Santo Antônio da Patrulha/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Santo Antonio da Patrulha/RS</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -8794,12 +8794,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/São Lourenço do Sul/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Sao Lourenco do Sul/RS</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -8827,12 +8827,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/São Lourenço do Sul/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Sao Lourenco do Sul/RS</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -8860,12 +8860,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Três de Maio/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Tres de Maio/RS</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -8893,12 +8893,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Três de Maio/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Tres de Maio/RS</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -8926,12 +8926,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Três de Maio/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Tres de Maio/RS</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -8959,12 +8959,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Três de Maio/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Tres de Maio/RS</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -8992,12 +8992,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Três de Maio/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Tres de Maio/RS</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -9025,12 +9025,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Três de Maio/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Tres de Maio/RS</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -9058,12 +9058,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Três de Maio/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Tres de Maio/RS</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -9091,12 +9091,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Física - Licenciatura/Distância/Três de Maio/RS</t>
+          <t>Fisica - Licenciatura/Distancia/Tres de Maio/RS</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -9162,7 +9162,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -9195,7 +9195,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -9228,7 +9228,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -9261,7 +9261,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -9294,7 +9294,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -9360,7 +9360,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -9393,7 +9393,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -9459,7 +9459,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -9558,7 +9558,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -9591,7 +9591,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -9624,7 +9624,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -9723,7 +9723,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -9756,7 +9756,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -9789,7 +9789,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -9822,7 +9822,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -9855,7 +9855,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -9888,7 +9888,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -9921,7 +9921,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -9954,7 +9954,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -10086,7 +10086,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -10119,7 +10119,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -10152,7 +10152,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -10185,7 +10185,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -10218,7 +10218,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -10251,7 +10251,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -10284,7 +10284,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -10317,7 +10317,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -10350,7 +10350,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -10383,7 +10383,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -10416,7 +10416,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -10449,7 +10449,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -10482,7 +10482,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -10515,7 +10515,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -10614,7 +10614,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -10680,7 +10680,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -10713,7 +10713,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -10746,7 +10746,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -10779,7 +10779,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -10812,7 +10812,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -10845,7 +10845,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -10878,7 +10878,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -10911,7 +10911,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -10944,7 +10944,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -10972,12 +10972,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Palmeira das Missões/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Palmeira das Missoes/RS</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -11005,12 +11005,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Palmeira das Missões/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Palmeira das Missoes/RS</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -11038,12 +11038,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Palmeira das Missões/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Palmeira das Missoes/RS</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -11071,12 +11071,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Palmeira das Missões/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Palmeira das Missoes/RS</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -11104,12 +11104,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Palmeira das Missões/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Palmeira das Missoes/RS</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -11137,12 +11137,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Palmeira das Missões/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Palmeira das Missoes/RS</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -11170,12 +11170,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Palmeira das Missões/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Palmeira das Missoes/RS</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -11203,12 +11203,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Palmeira das Missões/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Palmeira das Missoes/RS</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -11236,12 +11236,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Quaraí/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Quarai/RS</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -11269,12 +11269,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Quaraí/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Quarai/RS</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -11302,12 +11302,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Quaraí/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Quarai/RS</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -11335,12 +11335,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Quaraí/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Quarai/RS</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -11368,12 +11368,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Quaraí/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Quarai/RS</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -11401,12 +11401,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Quaraí/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Quarai/RS</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -11434,12 +11434,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Quaraí/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Quarai/RS</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -11467,12 +11467,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Quaraí/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Quarai/RS</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -11500,12 +11500,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Rosário do Sul/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Rosario do Sul/RS</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -11533,12 +11533,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Rosário do Sul/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Rosario do Sul/RS</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -11566,12 +11566,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Rosário do Sul/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Rosario do Sul/RS</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -11599,12 +11599,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Rosário do Sul/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Rosario do Sul/RS</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -11632,12 +11632,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Santa Vitória do Palmar/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Santa Vitoria do Palmar/RS</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -11665,12 +11665,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Santa Vitória do Palmar/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Santa Vitoria do Palmar/RS</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -11698,12 +11698,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Santa Vitória do Palmar/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Santa Vitoria do Palmar/RS</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -11731,12 +11731,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Santa Vitória do Palmar/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Santa Vitoria do Palmar/RS</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -11764,12 +11764,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Santa Vitória do Palmar/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Santa Vitoria do Palmar/RS</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -11797,12 +11797,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Santa Vitória do Palmar/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Santa Vitoria do Palmar/RS</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -11830,12 +11830,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Santa Vitória do Palmar/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Santa Vitoria do Palmar/RS</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -11868,7 +11868,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -11901,7 +11901,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -11934,7 +11934,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -11967,7 +11967,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -12000,7 +12000,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -12033,7 +12033,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -12066,7 +12066,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -12099,7 +12099,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -12132,7 +12132,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -12165,7 +12165,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -12198,7 +12198,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -12231,7 +12231,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -12264,7 +12264,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -12297,7 +12297,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -12330,7 +12330,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -12363,7 +12363,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -12396,7 +12396,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -12462,7 +12462,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -12490,12 +12490,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Serefina Corrêa/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Serefina Correa/RS</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -12523,12 +12523,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Serefina Corrêa/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Serefina Correa/RS</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -12556,12 +12556,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Serefina Corrêa/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Serefina Correa/RS</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -12589,12 +12589,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Serefina Corrêa/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Serefina Correa/RS</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -12622,12 +12622,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Serefina Corrêa/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Serefina Correa/RS</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -12655,12 +12655,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Serefina Corrêa/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Serefina Correa/RS</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -12693,7 +12693,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -12726,7 +12726,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -12759,7 +12759,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -12792,7 +12792,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -12825,7 +12825,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -12858,7 +12858,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -12886,12 +12886,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Três Passos/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Tres Passos/RS</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -12919,12 +12919,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Três Passos/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Tres Passos/RS</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -12952,12 +12952,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Três Passos/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Tres Passos/RS</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -12985,12 +12985,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Três Passos/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Tres Passos/RS</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -13018,12 +13018,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Três Passos/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Tres Passos/RS</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -13051,12 +13051,12 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Geografia Licenciatura -EaD-UAB/Três Passos/RS</t>
+          <t>Geografia Licenciatura -EaD-UAB/Tres Passos/RS</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -13084,12 +13084,12 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Licenciatura em Geografia/Distância/Santa Maria/RS</t>
+          <t>Licenciatura em Geografia/Distancia/Santa Maria/RS</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -13117,12 +13117,12 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Licenciatura em Geografia/Distância/Santa Maria/RS</t>
+          <t>Licenciatura em Geografia/Distancia/Santa Maria/RS</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -13150,12 +13150,12 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Licenciatura em Geografia/Distância/Santa Maria/RS</t>
+          <t>Licenciatura em Geografia/Distancia/Santa Maria/RS</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -13183,12 +13183,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Licenciatura em Geografia/Distância/Santa Maria/RS</t>
+          <t>Licenciatura em Geografia/Distancia/Santa Maria/RS</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -13216,12 +13216,12 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Licenciatura em Geografia/Distância/Santa Maria/RS</t>
+          <t>Licenciatura em Geografia/Distancia/Santa Maria/RS</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -13249,12 +13249,12 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Licenciatura em Geografia/Distância/Santa Maria/RS</t>
+          <t>Licenciatura em Geografia/Distancia/Santa Maria/RS</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -13282,12 +13282,12 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Matemática - Bacharelado</t>
+          <t>Matematica - Bacharelado</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -13315,12 +13315,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Matemática - Bacharelado</t>
+          <t>Matematica - Bacharelado</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -13348,12 +13348,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Matemática - Bacharelado</t>
+          <t>Matematica - Bacharelado</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -13381,12 +13381,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Matemática - Bacharelado</t>
+          <t>Matematica - Bacharelado</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -13414,12 +13414,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Matemática - Bacharelado</t>
+          <t>Matematica - Bacharelado</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -13447,12 +13447,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Matemática - Bacharelado</t>
+          <t>Matematica - Bacharelado</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -13480,12 +13480,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Matemática - Bacharelado</t>
+          <t>Matematica - Bacharelado</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -13513,12 +13513,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Matemática - Bacharelado</t>
+          <t>Matematica - Bacharelado</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -13546,12 +13546,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Matemática - Bacharelado</t>
+          <t>Matematica - Bacharelado</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -13579,12 +13579,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Matemática - Bacharelado</t>
+          <t>Matematica - Bacharelado</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -13612,12 +13612,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Matemática - Bacharelado</t>
+          <t>Matematica - Bacharelado</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -13645,12 +13645,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Matemática - Bacharelado</t>
+          <t>Matematica - Bacharelado</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -13678,12 +13678,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Matemática - Bacharelado</t>
+          <t>Matematica - Bacharelado</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -13711,12 +13711,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Matemática - Bacharelado</t>
+          <t>Matematica - Bacharelado</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -13744,12 +13744,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Matemática - Bacharelado</t>
+          <t>Matematica - Bacharelado</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -13777,12 +13777,12 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Matemática - Bacharelado</t>
+          <t>Matematica - Bacharelado</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -13810,12 +13810,12 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Matemática - Bacharelado</t>
+          <t>Matematica - Bacharelado</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -13843,12 +13843,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Matemática - Bacharelado</t>
+          <t>Matematica - Bacharelado</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -13876,12 +13876,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Matemática - Bacharelado</t>
+          <t>Matematica - Bacharelado</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -13909,12 +13909,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Matemática - Bacharelado</t>
+          <t>Matematica - Bacharelado</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -13942,12 +13942,12 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Matemática - Bacharelado</t>
+          <t>Matematica - Bacharelado</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -13975,12 +13975,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Matemática - Bacharelado</t>
+          <t>Matematica - Bacharelado</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -14008,12 +14008,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena</t>
+          <t>Matematica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -14041,12 +14041,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena</t>
+          <t>Matematica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -14074,12 +14074,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena</t>
+          <t>Matematica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -14107,12 +14107,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena</t>
+          <t>Matematica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -14140,12 +14140,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena</t>
+          <t>Matematica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -14173,12 +14173,12 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena</t>
+          <t>Matematica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -14206,12 +14206,12 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena</t>
+          <t>Matematica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -14239,12 +14239,12 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena</t>
+          <t>Matematica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -14272,12 +14272,12 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena</t>
+          <t>Matematica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -14305,12 +14305,12 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena</t>
+          <t>Matematica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -14338,12 +14338,12 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena</t>
+          <t>Matematica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -14371,12 +14371,12 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena</t>
+          <t>Matematica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -14404,12 +14404,12 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena</t>
+          <t>Matematica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -14437,12 +14437,12 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena</t>
+          <t>Matematica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -14470,12 +14470,12 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena</t>
+          <t>Matematica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -14503,12 +14503,12 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena</t>
+          <t>Matematica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -14536,12 +14536,12 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena</t>
+          <t>Matematica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -14569,12 +14569,12 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena</t>
+          <t>Matematica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -14602,12 +14602,12 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena</t>
+          <t>Matematica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -14635,12 +14635,12 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena</t>
+          <t>Matematica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -14668,12 +14668,12 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena</t>
+          <t>Matematica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -14701,12 +14701,12 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena</t>
+          <t>Matematica - Licenciatura Plena</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -14734,12 +14734,12 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena - Noturno</t>
+          <t>Matematica - Licenciatura Plena - Noturno</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -14767,12 +14767,12 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena - Noturno</t>
+          <t>Matematica - Licenciatura Plena - Noturno</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -14800,12 +14800,12 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena - Noturno</t>
+          <t>Matematica - Licenciatura Plena - Noturno</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -14833,12 +14833,12 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena - Noturno</t>
+          <t>Matematica - Licenciatura Plena - Noturno</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -14866,12 +14866,12 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena - Noturno</t>
+          <t>Matematica - Licenciatura Plena - Noturno</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -14899,12 +14899,12 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena - Noturno</t>
+          <t>Matematica - Licenciatura Plena - Noturno</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -14932,12 +14932,12 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena - Noturno</t>
+          <t>Matematica - Licenciatura Plena - Noturno</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -14965,12 +14965,12 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena - Noturno</t>
+          <t>Matematica - Licenciatura Plena - Noturno</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -14998,12 +14998,12 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena - Noturno</t>
+          <t>Matematica - Licenciatura Plena - Noturno</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -15031,12 +15031,12 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena - Noturno</t>
+          <t>Matematica - Licenciatura Plena - Noturno</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -15064,12 +15064,12 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena - Noturno</t>
+          <t>Matematica - Licenciatura Plena - Noturno</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -15097,12 +15097,12 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena - Noturno</t>
+          <t>Matematica - Licenciatura Plena - Noturno</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -15130,12 +15130,12 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena - Noturno</t>
+          <t>Matematica - Licenciatura Plena - Noturno</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -15163,12 +15163,12 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena - Noturno</t>
+          <t>Matematica - Licenciatura Plena - Noturno</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -15196,12 +15196,12 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena - Noturno</t>
+          <t>Matematica - Licenciatura Plena - Noturno</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -15229,12 +15229,12 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena - Noturno</t>
+          <t>Matematica - Licenciatura Plena - Noturno</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -15262,12 +15262,12 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena - Noturno</t>
+          <t>Matematica - Licenciatura Plena - Noturno</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -15295,12 +15295,12 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena - Noturno</t>
+          <t>Matematica - Licenciatura Plena - Noturno</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -15328,12 +15328,12 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena - Noturno</t>
+          <t>Matematica - Licenciatura Plena - Noturno</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -15361,12 +15361,12 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena - Noturno</t>
+          <t>Matematica - Licenciatura Plena - Noturno</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -15394,12 +15394,12 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena - Noturno</t>
+          <t>Matematica - Licenciatura Plena - Noturno</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -15427,12 +15427,12 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Matemática - Licenciatura Plena - Noturno</t>
+          <t>Matematica - Licenciatura Plena - Noturno</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -15465,7 +15465,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -15498,7 +15498,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -15531,7 +15531,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -15564,7 +15564,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -15597,7 +15597,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -15630,7 +15630,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -15663,7 +15663,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -15696,7 +15696,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -15729,7 +15729,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -15762,7 +15762,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -15795,7 +15795,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -15828,7 +15828,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -15861,7 +15861,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -15894,7 +15894,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -15927,7 +15927,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -15960,7 +15960,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -15993,7 +15993,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -16026,7 +16026,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -16059,7 +16059,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -16092,7 +16092,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -16125,7 +16125,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -16186,12 +16186,12 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Química - Bacharelado</t>
+          <t>Quimica - Bacharelado</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -16219,12 +16219,12 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Química - Bacharelado</t>
+          <t>Quimica - Bacharelado</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -16252,12 +16252,12 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Química - Bacharelado</t>
+          <t>Quimica - Bacharelado</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -16285,12 +16285,12 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Química - Bacharelado</t>
+          <t>Quimica - Bacharelado</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -16318,12 +16318,12 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Química - Bacharelado</t>
+          <t>Quimica - Bacharelado</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -16351,12 +16351,12 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Química - Bacharelado</t>
+          <t>Quimica - Bacharelado</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -16384,12 +16384,12 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Química - Bacharelado</t>
+          <t>Quimica - Bacharelado</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -16417,12 +16417,12 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Química - Bacharelado</t>
+          <t>Quimica - Bacharelado</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -16450,12 +16450,12 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Química - Bacharelado</t>
+          <t>Quimica - Bacharelado</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -16483,12 +16483,12 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Química - Bacharelado</t>
+          <t>Quimica - Bacharelado</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -16516,12 +16516,12 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Química - Bacharelado</t>
+          <t>Quimica - Bacharelado</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -16549,12 +16549,12 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Química - Bacharelado</t>
+          <t>Quimica - Bacharelado</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -16582,12 +16582,12 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Química - Bacharelado</t>
+          <t>Quimica - Bacharelado</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -16615,12 +16615,12 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Química - Bacharelado</t>
+          <t>Quimica - Bacharelado</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -16648,12 +16648,12 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Química - Bacharelado</t>
+          <t>Quimica - Bacharelado</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -16681,12 +16681,12 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Química - Bacharelado</t>
+          <t>Quimica - Bacharelado</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -16714,12 +16714,12 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Química - Bacharelado</t>
+          <t>Quimica - Bacharelado</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -16747,12 +16747,12 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Química - Bacharelado</t>
+          <t>Quimica - Bacharelado</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -16780,12 +16780,12 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Química - Bacharelado</t>
+          <t>Quimica - Bacharelado</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -16813,12 +16813,12 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Química - Bacharelado</t>
+          <t>Quimica - Bacharelado</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -16846,12 +16846,12 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Química - Bacharelado</t>
+          <t>Quimica - Bacharelado</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -16879,12 +16879,12 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Química - Bacharelado</t>
+          <t>Quimica - Bacharelado</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -16912,12 +16912,12 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Química - Licenciatura</t>
+          <t>Quimica - Licenciatura</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -16945,12 +16945,12 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Química - Licenciatura</t>
+          <t>Quimica - Licenciatura</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -16978,12 +16978,12 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Química - Licenciatura</t>
+          <t>Quimica - Licenciatura</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -17011,12 +17011,12 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Química - Licenciatura</t>
+          <t>Quimica - Licenciatura</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -17044,12 +17044,12 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Química - Licenciatura</t>
+          <t>Quimica - Licenciatura</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -17077,12 +17077,12 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Química - Licenciatura</t>
+          <t>Quimica - Licenciatura</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -17110,12 +17110,12 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Química - Licenciatura</t>
+          <t>Quimica - Licenciatura</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -17143,12 +17143,12 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Química - Licenciatura</t>
+          <t>Quimica - Licenciatura</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -17176,12 +17176,12 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Química - Licenciatura</t>
+          <t>Quimica - Licenciatura</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -17209,12 +17209,12 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Química - Licenciatura</t>
+          <t>Quimica - Licenciatura</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -17242,12 +17242,12 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Química - Licenciatura</t>
+          <t>Quimica - Licenciatura</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -17275,12 +17275,12 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Química - Licenciatura</t>
+          <t>Quimica - Licenciatura</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -17308,12 +17308,12 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Química - Licenciatura</t>
+          <t>Quimica - Licenciatura</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -17341,12 +17341,12 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Química - Licenciatura</t>
+          <t>Quimica - Licenciatura</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -17374,12 +17374,12 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Química - Licenciatura</t>
+          <t>Quimica - Licenciatura</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -17407,12 +17407,12 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Química - Licenciatura</t>
+          <t>Quimica - Licenciatura</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -17440,12 +17440,12 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Química - Licenciatura</t>
+          <t>Quimica - Licenciatura</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -17473,12 +17473,12 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Química - Licenciatura</t>
+          <t>Quimica - Licenciatura</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -17506,12 +17506,12 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Química - Licenciatura</t>
+          <t>Quimica - Licenciatura</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -17539,12 +17539,12 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Química - Licenciatura</t>
+          <t>Quimica - Licenciatura</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -17572,12 +17572,12 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Química - Licenciatura</t>
+          <t>Quimica - Licenciatura</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -17605,12 +17605,12 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Química - Licenciatura</t>
+          <t>Quimica - Licenciatura</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -17638,12 +17638,12 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Química Industrial</t>
+          <t>Quimica Industrial</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -17671,12 +17671,12 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Química Industrial</t>
+          <t>Quimica Industrial</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -17704,12 +17704,12 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Química Industrial</t>
+          <t>Quimica Industrial</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -17737,12 +17737,12 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Química Industrial</t>
+          <t>Quimica Industrial</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -17770,12 +17770,12 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Química Industrial</t>
+          <t>Quimica Industrial</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -17803,12 +17803,12 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Química Industrial</t>
+          <t>Quimica Industrial</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -17836,12 +17836,12 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Química Industrial</t>
+          <t>Quimica Industrial</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
@@ -17869,12 +17869,12 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Química Industrial</t>
+          <t>Quimica Industrial</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -17902,12 +17902,12 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Química Industrial</t>
+          <t>Quimica Industrial</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -17935,12 +17935,12 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Química Industrial</t>
+          <t>Quimica Industrial</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -17968,12 +17968,12 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Química Industrial</t>
+          <t>Quimica Industrial</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -18001,12 +18001,12 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Química Industrial</t>
+          <t>Quimica Industrial</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -18034,12 +18034,12 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Química Industrial</t>
+          <t>Quimica Industrial</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -18067,12 +18067,12 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Química Industrial</t>
+          <t>Quimica Industrial</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -18100,12 +18100,12 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Química Industrial</t>
+          <t>Quimica Industrial</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -18133,12 +18133,12 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Química Industrial</t>
+          <t>Quimica Industrial</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -18166,12 +18166,12 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Química Industrial</t>
+          <t>Quimica Industrial</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -18199,12 +18199,12 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Química Industrial</t>
+          <t>Quimica Industrial</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -18232,12 +18232,12 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Química Industrial</t>
+          <t>Quimica Industrial</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -18265,12 +18265,12 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Química Industrial</t>
+          <t>Quimica Industrial</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -18298,12 +18298,12 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Química Industrial</t>
+          <t>Quimica Industrial</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -18331,12 +18331,12 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Química Industrial</t>
+          <t>Quimica Industrial</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
